--- a/datasets/commandset.xlsx
+++ b/datasets/commandset.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="565">
   <si>
     <t>text</t>
   </si>
@@ -1708,6 +1708,15 @@
   </si>
   <si>
     <t>окей миса спроси</t>
+  </si>
+  <si>
+    <t>разговор погода      —      разговор дурак</t>
+  </si>
+  <si>
+    <t>становиться богатый знаменитый влиятельный      —      равный умирать количество человек приходить твой похороны сильно зависеть погода</t>
+  </si>
+  <si>
+    <t>бранить погода      –      меняться девять человек десять смочь начинать разговор</t>
   </si>
 </sst>
 </file>
@@ -2099,10 +2108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C1593"/>
+  <dimension ref="A1:C1622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1556" workbookViewId="0">
-      <selection activeCell="G1574" sqref="G1574"/>
+    <sheetView tabSelected="1" topLeftCell="A720" workbookViewId="0">
+      <selection activeCell="R728" sqref="R728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19628,6 +19637,325 @@
       </c>
       <c r="C1593">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1622">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
